--- a/Team-Data/2014-15/2-28-2014-15.xlsx
+++ b/Team-Data/2014-15/2-28-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="n">
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.797</v>
+        <v>0.793</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.466</v>
@@ -702,25 +769,25 @@
         <v>17.2</v>
       </c>
       <c r="P2" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q2" t="n">
         <v>0.775</v>
       </c>
       <c r="R2" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S2" t="n">
         <v>32.4</v>
       </c>
       <c r="T2" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U2" t="n">
         <v>25.6</v>
       </c>
       <c r="V2" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W2" t="n">
         <v>8.800000000000001</v>
@@ -729,22 +796,22 @@
         <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z2" t="n">
         <v>17.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
       <c r="AC2" t="n">
         <v>6.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,16 +823,16 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -777,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>18</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -798,13 +865,13 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -813,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -929,13 +996,13 @@
         <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>7</v>
@@ -974,13 +1041,13 @@
         <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
@@ -989,10 +1056,10 @@
         <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
         <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>0.421</v>
+        <v>0.411</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J4" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
         <v>6.6</v>
@@ -1060,25 +1127,25 @@
         <v>20.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.322</v>
+        <v>0.32</v>
       </c>
       <c r="O4" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P4" t="n">
         <v>21.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R4" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T4" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U4" t="n">
         <v>20.5</v>
@@ -1099,31 +1166,31 @@
         <v>20</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3</v>
+        <v>-3.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
         <v>18</v>
       </c>
-      <c r="AF4" t="n">
-        <v>17</v>
-      </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>23</v>
@@ -1135,13 +1202,13 @@
         <v>25</v>
       </c>
       <c r="AM4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="n">
         <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
@@ -1156,13 +1223,13 @@
         <v>16</v>
       </c>
       <c r="AT4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
         <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1183,7 +1250,7 @@
         <v>23</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -1293,19 +1360,19 @@
         <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>4</v>
       </c>
       <c r="AI5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -1472,25 +1539,25 @@
         <v>2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>8</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>5</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
@@ -1517,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1736,7 @@
         <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>22</v>
@@ -1690,7 +1757,7 @@
         <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
@@ -1711,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>25</v>
@@ -1729,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -1776,22 +1843,22 @@
         <v>39.7</v>
       </c>
       <c r="J8" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L8" t="n">
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O8" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P8" t="n">
         <v>21.8</v>
@@ -1800,19 +1867,19 @@
         <v>0.76</v>
       </c>
       <c r="R8" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T8" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V8" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W8" t="n">
         <v>8.199999999999999</v>
@@ -1824,22 +1891,22 @@
         <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA8" t="n">
         <v>21.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
@@ -1848,19 +1915,19 @@
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM8" t="n">
         <v>4</v>
@@ -1875,13 +1942,13 @@
         <v>20</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR8" t="n">
         <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1902,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,10 +2097,10 @@
         <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ9" t="n">
         <v>4</v>
@@ -2051,10 +2118,10 @@
         <v>29</v>
       </c>
       <c r="AO9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP9" t="n">
         <v>7</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>6</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
@@ -2063,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT9" t="n">
         <v>8</v>
@@ -2075,7 +2142,7 @@
         <v>12</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX9" t="n">
         <v>15</v>
@@ -2084,7 +2151,7 @@
         <v>30</v>
       </c>
       <c r="AZ9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
         <v>9</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="n">
-        <v>0.39</v>
+        <v>0.397</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,10 +2207,10 @@
         <v>36.6</v>
       </c>
       <c r="J10" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
       <c r="L10" t="n">
         <v>8.699999999999999</v>
@@ -2152,28 +2219,28 @@
         <v>25.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O10" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P10" t="n">
         <v>23.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.704</v>
+        <v>0.707</v>
       </c>
       <c r="R10" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S10" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T10" t="n">
         <v>45.4</v>
       </c>
       <c r="U10" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V10" t="n">
         <v>13.7</v>
@@ -2182,34 +2249,34 @@
         <v>7.6</v>
       </c>
       <c r="X10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
         <v>19.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB10" t="n">
         <v>98.59999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
         <v>16</v>
@@ -2227,16 +2294,16 @@
         <v>10</v>
       </c>
       <c r="AM10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN10" t="n">
         <v>20</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2254,16 +2321,16 @@
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
         <v>14</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -2415,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J12" t="n">
-        <v>84.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.438</v>
@@ -2513,19 +2580,19 @@
         <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="R12" t="n">
         <v>12.2</v>
@@ -2543,28 +2610,28 @@
         <v>16.9</v>
       </c>
       <c r="W12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2579,7 +2646,7 @@
         <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
         <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2612,7 +2679,7 @@
         <v>23</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
         <v>11</v>
@@ -2624,22 +2691,22 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>18</v>
@@ -2755,10 +2822,10 @@
         <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2782,7 +2849,7 @@
         <v>24</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>13</v>
@@ -2800,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2809,7 +2876,7 @@
         <v>22</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2946,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2958,7 +3025,7 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" t="n">
-        <v>0.286</v>
+        <v>0.281</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L15" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M15" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="N15" t="n">
         <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
         <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T15" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>13</v>
@@ -3098,19 +3165,19 @@
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,13 +3192,13 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>24</v>
@@ -3140,46 +3207,46 @@
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
         <v>10</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS15" t="n">
         <v>18</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" t="n">
         <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>0.724</v>
+        <v>0.719</v>
       </c>
       <c r="H16" t="n">
         <v>48.8</v>
@@ -3232,16 +3299,16 @@
         <v>38.2</v>
       </c>
       <c r="J16" t="n">
-        <v>83.09999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L16" t="n">
         <v>5.2</v>
       </c>
       <c r="M16" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="N16" t="n">
         <v>0.337</v>
@@ -3250,16 +3317,16 @@
         <v>18.3</v>
       </c>
       <c r="P16" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R16" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S16" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T16" t="n">
         <v>43</v>
@@ -3268,22 +3335,22 @@
         <v>21.9</v>
       </c>
       <c r="V16" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB16" t="n">
         <v>99.8</v>
@@ -3292,7 +3359,7 @@
         <v>4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,10 +3377,10 @@
         <v>7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>28</v>
@@ -3325,19 +3392,19 @@
         <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT16" t="n">
         <v>18</v>
@@ -3346,25 +3413,25 @@
         <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
       </c>
       <c r="BA16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -3396,61 +3463,61 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" t="n">
         <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>0.431</v>
+        <v>0.439</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J17" t="n">
         <v>75.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L17" t="n">
         <v>7.1</v>
       </c>
       <c r="M17" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O17" t="n">
         <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.744</v>
+        <v>0.741</v>
       </c>
       <c r="R17" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S17" t="n">
         <v>29.5</v>
       </c>
       <c r="T17" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="U17" t="n">
         <v>20.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
         <v>7.9</v>
@@ -3462,19 +3529,19 @@
         <v>4.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA17" t="n">
         <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="AC17" t="n">
         <v>-3.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,31 +3562,31 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3531,7 +3598,7 @@
         <v>20</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>24</v>
@@ -3540,7 +3607,7 @@
         <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
@@ -3549,7 +3616,7 @@
         <v>28</v>
       </c>
       <c r="BC17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -3578,46 +3645,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" t="n">
         <v>32</v>
       </c>
       <c r="F18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" t="n">
-        <v>0.542</v>
+        <v>0.552</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="J18" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L18" t="n">
         <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O18" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R18" t="n">
         <v>10.1</v>
@@ -3626,16 +3693,16 @@
         <v>31.3</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U18" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V18" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="W18" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="X18" t="n">
         <v>4.8</v>
@@ -3644,25 +3711,25 @@
         <v>4.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA18" t="n">
         <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -3671,7 +3738,7 @@
         <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
@@ -3680,25 +3747,25 @@
         <v>6</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
@@ -3710,13 +3777,13 @@
         <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW18" t="n">
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -3760,34 +3827,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
       </c>
       <c r="F19" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" t="n">
-        <v>0.224</v>
+        <v>0.228</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J19" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="N19" t="n">
         <v>0.333</v>
@@ -3799,34 +3866,34 @@
         <v>25.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R19" t="n">
         <v>12.3</v>
       </c>
       <c r="S19" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="T19" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U19" t="n">
         <v>21.8</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y19" t="n">
         <v>5.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
         <v>21.6</v>
@@ -3835,10 +3902,10 @@
         <v>97.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-7.8</v>
+        <v>-7.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3850,16 +3917,16 @@
         <v>28</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
         <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3877,13 +3944,13 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT19" t="n">
         <v>25</v>
@@ -3892,7 +3959,7 @@
         <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>8</v>
@@ -3901,7 +3968,7 @@
         <v>28</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
         <v>11</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.526</v>
+        <v>0.534</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.90000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
         <v>6.9</v>
@@ -3972,37 +4039,37 @@
         <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O20" t="n">
         <v>17.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="S20" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T20" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W20" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
         <v>5.9</v>
@@ -4011,46 +4078,46 @@
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
         <v>99.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK20" t="n">
         <v>12</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>11</v>
-      </c>
       <c r="AL20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM20" t="n">
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
@@ -4062,19 +4129,19 @@
         <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AU20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
         <v>26</v>
@@ -4083,16 +4150,16 @@
         <v>6</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="n">
         <v>46</v>
       </c>
       <c r="G21" t="n">
-        <v>0.207</v>
+        <v>0.193</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4142,7 +4209,7 @@
         <v>35.9</v>
       </c>
       <c r="J21" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K21" t="n">
         <v>0.434</v>
@@ -4157,22 +4224,22 @@
         <v>0.35</v>
       </c>
       <c r="O21" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="P21" t="n">
-        <v>18.2</v>
+        <v>17.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T21" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U21" t="n">
         <v>21.6</v>
@@ -4193,16 +4260,16 @@
         <v>22.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>93</v>
+        <v>92.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7.9</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4247,19 +4314,19 @@
         <v>16</v>
       </c>
       <c r="AS21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT21" t="n">
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX21" t="n">
         <v>26</v>
@@ -4271,7 +4338,7 @@
         <v>25</v>
       </c>
       <c r="BA21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -4384,25 +4451,25 @@
         <v>2.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK22" t="n">
         <v>19</v>
@@ -4426,7 +4493,7 @@
         <v>16</v>
       </c>
       <c r="AR22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -4441,13 +4508,13 @@
         <v>21</v>
       </c>
       <c r="AW22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -4488,55 +4555,55 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G23" t="n">
-        <v>0.322</v>
+        <v>0.317</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.352</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="P23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="R23" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="U23" t="n">
         <v>20.4</v>
@@ -4548,25 +4615,25 @@
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA23" t="n">
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4590,7 +4657,7 @@
         <v>9</v>
       </c>
       <c r="AL23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4611,16 +4678,16 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
@@ -4629,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
         <v>23</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>-10.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH24" t="n">
         <v>24</v>
@@ -4784,7 +4851,7 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4796,10 +4863,10 @@
         <v>27</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4811,13 +4878,13 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -4852,43 +4919,43 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" t="n">
         <v>31</v>
       </c>
       <c r="F25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.517</v>
+        <v>0.525</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="J25" t="n">
-        <v>86.8</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.459</v>
+        <v>0.462</v>
       </c>
       <c r="L25" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M25" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="N25" t="n">
         <v>0.358</v>
       </c>
       <c r="O25" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P25" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q25" t="n">
         <v>0.776</v>
@@ -4897,40 +4964,40 @@
         <v>11</v>
       </c>
       <c r="S25" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T25" t="n">
         <v>43.1</v>
       </c>
       <c r="U25" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V25" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W25" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X25" t="n">
         <v>5</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
         <v>22.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.8</v>
+        <v>106.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4942,7 +5009,7 @@
         <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -4951,10 +5018,10 @@
         <v>3</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM25" t="n">
         <v>5</v>
@@ -4963,13 +5030,13 @@
         <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR25" t="n">
         <v>15</v>
@@ -4981,10 +5048,10 @@
         <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
@@ -5124,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>8</v>
@@ -5166,7 +5233,7 @@
         <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5367,7 @@
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5333,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -5413,22 +5480,22 @@
         <v>48.8</v>
       </c>
       <c r="I28" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>83.7</v>
+        <v>83.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="N28" t="n">
-        <v>0.357</v>
+        <v>0.362</v>
       </c>
       <c r="O28" t="n">
         <v>16.6</v>
@@ -5437,22 +5504,22 @@
         <v>21.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R28" t="n">
         <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.6</v>
       </c>
       <c r="U28" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W28" t="n">
         <v>7.6</v>
@@ -5464,7 +5531,7 @@
         <v>4.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA28" t="n">
         <v>19.8</v>
@@ -5473,10 +5540,10 @@
         <v>100.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5488,13 +5555,13 @@
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
         <v>13</v>
@@ -5506,31 +5573,31 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
@@ -5542,16 +5609,16 @@
         <v>13</v>
       </c>
       <c r="AZ28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>13</v>
       </c>
       <c r="BC28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" t="n">
         <v>37</v>
       </c>
       <c r="F29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" t="n">
-        <v>0.627</v>
+        <v>0.638</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J29" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L29" t="n">
         <v>8.699999999999999</v>
@@ -5610,10 +5677,10 @@
         <v>25.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O29" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P29" t="n">
         <v>25.2</v>
@@ -5622,7 +5689,7 @@
         <v>0.781</v>
       </c>
       <c r="R29" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S29" t="n">
         <v>30.8</v>
@@ -5631,13 +5698,13 @@
         <v>41.9</v>
       </c>
       <c r="U29" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V29" t="n">
         <v>13.2</v>
       </c>
       <c r="W29" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X29" t="n">
         <v>4.5</v>
@@ -5646,25 +5713,25 @@
         <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA29" t="n">
         <v>21</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>8</v>
       </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG29" t="n">
         <v>8</v>
@@ -5709,22 +5776,22 @@
         <v>24</v>
       </c>
       <c r="AU29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BA29" t="n">
         <v>7</v>
@@ -5733,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" t="n">
         <v>35</v>
       </c>
       <c r="G30" t="n">
-        <v>0.397</v>
+        <v>0.386</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J30" t="n">
         <v>79.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L30" t="n">
         <v>7.3</v>
@@ -5792,7 +5859,7 @@
         <v>21</v>
       </c>
       <c r="N30" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O30" t="n">
         <v>16.7</v>
@@ -5801,7 +5868,7 @@
         <v>22.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.732</v>
+        <v>0.731</v>
       </c>
       <c r="R30" t="n">
         <v>11.8</v>
@@ -5816,16 +5883,16 @@
         <v>20.1</v>
       </c>
       <c r="V30" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W30" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X30" t="n">
         <v>6</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z30" t="n">
         <v>19.2</v>
@@ -5834,34 +5901,34 @@
         <v>19.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
         <v>22</v>
       </c>
       <c r="AG30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ30" t="n">
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
         <v>17</v>
@@ -5870,10 +5937,10 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
@@ -5882,7 +5949,7 @@
         <v>25</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
         <v>24</v>
@@ -5897,10 +5964,10 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
         <v>16</v>
@@ -5912,7 +5979,7 @@
         <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" t="n">
         <v>26</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5980,13 +6047,13 @@
         <v>15.9</v>
       </c>
       <c r="P31" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.745</v>
       </c>
       <c r="R31" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S31" t="n">
         <v>33.6</v>
@@ -5995,13 +6062,13 @@
         <v>44.1</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="V31" t="n">
         <v>15.2</v>
       </c>
       <c r="W31" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X31" t="n">
         <v>4.6</v>
@@ -6010,19 +6077,19 @@
         <v>4.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA31" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB31" t="n">
         <v>98.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6043,7 +6110,7 @@
         <v>21</v>
       </c>
       <c r="AK31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6052,22 +6119,22 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
         <v>20</v>
       </c>
       <c r="AR31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT31" t="n">
         <v>9</v>
@@ -6076,22 +6143,22 @@
         <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-28-2014-15</t>
+          <t>2015-02-28</t>
         </is>
       </c>
     </row>
